--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshit\Downloads\EY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E75259-14C5-4241-9BEE-F27B23C8EE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798BDC3A-269E-4F1C-BA76-D53B2B67C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="Distributor Side" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="196">
   <si>
     <t>Date</t>
   </si>
@@ -491,12 +490,896 @@
   <si>
     <t>DIST006</t>
   </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Stock in Inventory (In KG for GROCERY)</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>Toothpaste</t>
+  </si>
+  <si>
+    <t>Body Lotion</t>
+  </si>
+  <si>
+    <t>Hair Oil</t>
+  </si>
+  <si>
+    <t>Face Wash</t>
+  </si>
+  <si>
+    <t>Deodorant</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Lentils</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Cooking Oil</t>
+  </si>
+  <si>
+    <t>Spices</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Dish Soap</t>
+  </si>
+  <si>
+    <t>Laundry Detergent</t>
+  </si>
+  <si>
+    <t>Cleaning Supplies</t>
+  </si>
+  <si>
+    <t>Light Bulbs</t>
+  </si>
+  <si>
+    <t>Towels</t>
+  </si>
+  <si>
+    <t>Trash Bags</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Days to Last</t>
+  </si>
+  <si>
+    <t>Days left</t>
+  </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Anticipate a surge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF82C6FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> demand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> certain items next month.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Foresee a general decrease </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF82C6FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> prices across various categories next month.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Consider adjusting stock levels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> the season concludes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Expect increased demand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> winter-related products.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Monitor prices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> seasonal items </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> they may decrease.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Prepare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> a rise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF82C6FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> demand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cold-weather essentials.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Evaluate stock levels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> seasonal items </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> summer ends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>. Stock up on flu season essentials.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Monitor prices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> certain fresh produce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> they may decrease.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Prepare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> increased demand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> baking essentials ahead of holidays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Adjust stock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> outdoor-related items </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> weather changes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Expect a decrease </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF82C6FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> demand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> summer-related treats.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Project heightened demand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> holiday-specific ingredients.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Monitor fresh herb prices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> they may decrease.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Consider increasing stock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> convenient comfort foods.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Adjust stock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> seasonal items </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> barbecue season winds down.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Predict a potential price decrease </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> specific fresh produce next month.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Prepare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> heightened demand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> holiday baking supplies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. Consider stocking up on festive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF82C6FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> seasonal items </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> upcoming holidays.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -528,6 +1411,42 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans Mono&quot;"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF82C6FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFC586C0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -562,7 +1481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -574,6 +1493,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,9 +1734,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -820,7 +1746,7 @@
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -831,652 +1757,851 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f t="shared" ref="C2:C22" si="0">LEFT(A2, 3) &amp; B2</f>
-        <v>PER1001</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D8" ca="1" si="1">ROUNDUP(RANDBETWEEN(10, 30) * 10, 0)</f>
-        <v>220</v>
-      </c>
-      <c r="E2" s="3">
-        <v>290</v>
+        <v>1007</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="8">
+        <v>170</v>
       </c>
       <c r="F2" s="3">
-        <v>273</v>
+        <v>410</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G22" si="2">E2-F2</f>
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H22" si="3">ROUND((G2/E2)*100,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0.41463414599999998</v>
+      </c>
+      <c r="K2">
+        <f ca="1">_xlfn.CEILING.MATH(J2+8*RAND())</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="8">
+        <v>280</v>
+      </c>
+      <c r="F3" s="3">
+        <v>325</v>
+      </c>
+      <c r="G3" s="3">
+        <v>280</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45</v>
+      </c>
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>PER1002</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E3" s="3">
-        <v>125</v>
-      </c>
-      <c r="F3" s="3">
-        <v>117</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" si="2"/>
+      <c r="J3">
+        <v>0.86153846199999995</v>
+      </c>
+      <c r="K3">
+        <f ca="1">_xlfn.CEILING.MATH(J3+8*RAND())</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="8">
+        <v>170</v>
+      </c>
+      <c r="F4" s="3">
+        <v>400</v>
+      </c>
+      <c r="G4" s="3">
+        <v>336</v>
+      </c>
+      <c r="H4" s="3">
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K4">
+        <f ca="1">_xlfn.CEILING.MATH(J4+8*RAND())</f>
         <v>8</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>PER1003</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="E4" s="3">
-        <v>85</v>
-      </c>
-      <c r="F4" s="3">
-        <v>70</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="L4" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>1004</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>PER1004</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="E5" s="3">
-        <v>150</v>
+        <v>1005</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="8">
+        <v>130</v>
       </c>
       <c r="F5" s="3">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>0.43333333299999999</v>
+      </c>
+      <c r="K5">
+        <f ca="1">_xlfn.CEILING.MATH(J5+8*RAND())</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1018</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="8">
+        <v>160</v>
+      </c>
+      <c r="F6" s="3">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3">
+        <v>186</v>
+      </c>
+      <c r="H6" s="3">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>PER1005</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="E6" s="3">
-        <v>300</v>
-      </c>
-      <c r="F6" s="3">
-        <v>246</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <f ca="1">_xlfn.CEILING.MATH(J6+8*RAND())</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>PER1006</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="E7" s="3">
-        <v>390</v>
+        <v>1004</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="8">
+        <v>180</v>
       </c>
       <c r="F7" s="3">
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="2"/>
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>1.2</v>
+      </c>
+      <c r="K7">
+        <f ca="1">_xlfn.CEILING.MATH(J7+8*RAND())</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>PER1007</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="E8" s="3">
-        <v>410</v>
+        <v>1003</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="8">
+        <v>190</v>
       </c>
       <c r="F8" s="3">
-        <v>390</v>
+        <v>85</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>2.2588235289999998</v>
+      </c>
+      <c r="K8">
+        <f ca="1">_xlfn.CEILING.MATH(J8+8*RAND())</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>1008</v>
-      </c>
-      <c r="C9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>GRO1008</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:D15" ca="1" si="4">RANDBETWEEN(100,300)</f>
-        <v>214</v>
-      </c>
-      <c r="E9" s="3">
-        <v>50</v>
+        <v>1001</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="9">
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0.34482758600000002</v>
+      </c>
+      <c r="K9">
+        <f ca="1">_xlfn.CEILING.MATH(J9+8*RAND())</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>1009</v>
-      </c>
-      <c r="C10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>GRO1009</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>285</v>
-      </c>
-      <c r="E10" s="3">
-        <v>175</v>
+        <v>1010</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="8">
+        <v>133</v>
       </c>
       <c r="F10" s="3">
+        <v>375</v>
+      </c>
+      <c r="G10" s="3">
+        <v>342</v>
+      </c>
+      <c r="H10" s="3">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0.35466666699999999</v>
+      </c>
+      <c r="K10">
+        <f ca="1">_xlfn.CEILING.MATH(J10+8*RAND())</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1017</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="8">
+        <v>200</v>
+      </c>
+      <c r="F11" s="3">
+        <v>185</v>
+      </c>
+      <c r="G11" s="3">
+        <v>174</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>1.081081081</v>
+      </c>
+      <c r="K11">
+        <f ca="1">_xlfn.CEILING.MATH(J11+8*RAND())</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="8">
+        <v>270</v>
+      </c>
+      <c r="F12" s="3">
+        <v>165</v>
+      </c>
+      <c r="G12" s="3">
         <v>142</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="3"/>
+      <c r="H12" s="3">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>1.636363636</v>
+      </c>
+      <c r="K12">
+        <f ca="1">_xlfn.CEILING.MATH(J12+8*RAND())</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="8">
+        <v>200</v>
+      </c>
+      <c r="F13" s="3">
+        <v>390</v>
+      </c>
+      <c r="G13" s="3">
+        <v>316</v>
+      </c>
+      <c r="H13" s="3">
+        <v>74</v>
+      </c>
+      <c r="I13">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>GRO1010</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="E11" s="3">
-        <v>375</v>
-      </c>
-      <c r="F11" s="3">
-        <v>342</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1011</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>GRO1011</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>210</v>
-      </c>
-      <c r="E12" s="3">
-        <v>70</v>
-      </c>
-      <c r="F12" s="3">
-        <v>58</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1012</v>
-      </c>
-      <c r="C13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>GRO1012</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>137</v>
-      </c>
-      <c r="E13" s="3">
-        <v>210</v>
-      </c>
-      <c r="F13" s="3">
-        <v>187</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="J13">
+        <v>0.51282051299999998</v>
+      </c>
+      <c r="K13">
+        <f ca="1">_xlfn.CEILING.MATH(J13+8*RAND())</f>
+        <v>7</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>1013</v>
-      </c>
-      <c r="C14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>GRO1013</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>297</v>
-      </c>
-      <c r="E14" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="8">
+        <v>126</v>
+      </c>
+      <c r="F14" s="3">
+        <v>210</v>
+      </c>
+      <c r="G14" s="3">
+        <v>187</v>
+      </c>
+      <c r="H14" s="3">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <f ca="1">_xlfn.CEILING.MATH(J14+8*RAND())</f>
+        <v>7</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="8">
         <v>250</v>
       </c>
-      <c r="F14" s="3">
-        <v>233</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1014</v>
-      </c>
-      <c r="C15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>GRO1014</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>127</v>
-      </c>
-      <c r="E15" s="3">
-        <v>90</v>
-      </c>
       <c r="F15" s="3">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>445</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="I15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <f ca="1">_xlfn.CEILING.MATH(J15+8*RAND())</f>
+        <v>3</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>1015</v>
-      </c>
-      <c r="C16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>HOM1015</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D22" ca="1" si="5">ROUNDUP(RANDBETWEEN(10, 30) * 10, 0)</f>
-        <v>280</v>
-      </c>
-      <c r="E16" s="3">
-        <v>500</v>
+        <v>1019</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="8">
+        <v>120</v>
       </c>
       <c r="F16" s="3">
-        <v>445</v>
+        <v>75</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>1.6</v>
+      </c>
+      <c r="K16">
+        <f ca="1">_xlfn.CEILING.MATH(J16+8*RAND())</f>
+        <v>8</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="8">
+        <v>190</v>
+      </c>
+      <c r="F17" s="3">
+        <v>125</v>
+      </c>
+      <c r="G17" s="3">
+        <v>117</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>1.52</v>
+      </c>
+      <c r="K17">
+        <f ca="1">_xlfn.CEILING.MATH(J17+8*RAND())</f>
+        <v>7</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="8">
+        <v>162</v>
+      </c>
+      <c r="F18" s="3">
+        <v>250</v>
+      </c>
+      <c r="G18" s="3">
+        <v>233</v>
+      </c>
+      <c r="H18" s="3">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="K18">
+        <f ca="1">_xlfn.CEILING.MATH(J18+8*RAND())</f>
+        <v>2</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="8">
+        <v>291</v>
+      </c>
+      <c r="F19" s="3">
+        <v>175</v>
+      </c>
+      <c r="G19" s="3">
+        <v>142</v>
+      </c>
+      <c r="H19" s="3">
+        <v>33</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>1.6628571430000001</v>
+      </c>
+      <c r="K19">
+        <f ca="1">_xlfn.CEILING.MATH(J19+8*RAND())</f>
+        <v>6</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12.5">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="8">
+        <v>225</v>
+      </c>
+      <c r="F20" s="3">
+        <v>90</v>
+      </c>
+      <c r="G20" s="3">
+        <v>80</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10</v>
+      </c>
+      <c r="I20">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1016</v>
-      </c>
-      <c r="C17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>HOM1016</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="E17" s="3">
-        <v>325</v>
-      </c>
-      <c r="F17" s="3">
-        <v>280</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1017</v>
-      </c>
-      <c r="C18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>HOM1017</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="E18" s="3">
-        <v>185</v>
-      </c>
-      <c r="F18" s="3">
-        <v>174</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1018</v>
-      </c>
-      <c r="C19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>HOM1018</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" ca="1" si="5"/>
+      <c r="J20">
+        <v>2.5</v>
+      </c>
+      <c r="K20">
+        <f ca="1">_xlfn.CEILING.MATH(J20+8*RAND())</f>
+        <v>7</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12.5">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="3">
-        <v>200</v>
-      </c>
-      <c r="F19" s="3">
-        <v>186</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.5">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1019</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>HOM1019</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>130</v>
-      </c>
-      <c r="E20" s="3">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3">
-        <v>69</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="3"/>
+      <c r="E21" s="8">
+        <v>181</v>
+      </c>
+      <c r="F21" s="3">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3">
+        <v>42</v>
+      </c>
+      <c r="H21" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.5">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1020</v>
-      </c>
-      <c r="C21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>HOM1020</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>280</v>
-      </c>
-      <c r="E21" s="3">
-        <v>165</v>
-      </c>
-      <c r="F21" s="3">
-        <v>142</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.5">
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>3.62</v>
+      </c>
+      <c r="K21">
+        <f ca="1">_xlfn.CEILING.MATH(J21+8*RAND())</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.5">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3">
-        <v>1021</v>
-      </c>
-      <c r="C22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>HOM1021</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
+        <v>1011</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="8">
+        <v>195</v>
       </c>
       <c r="F22" s="3">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>2.7857142860000002</v>
+      </c>
+      <c r="K22">
+        <f ca="1">_xlfn.CEILING.MATH(J22+8*RAND())</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
+    <sortCondition ref="K1:K23"/>
+  </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -61132,7 +62257,7 @@
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D8" ca="1" si="1">ROUNDUP(RANDBETWEEN(10, 30) * 10, 0)</f>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="E2" s="3">
         <v>290</v>
@@ -61162,7 +62287,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="E3" s="3">
         <v>125</v>
@@ -61192,7 +62317,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="E4" s="3">
         <v>85</v>
@@ -61222,7 +62347,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3">
         <v>150</v>
@@ -61252,7 +62377,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E6" s="3">
         <v>300</v>
@@ -61282,7 +62407,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>390</v>
@@ -61312,7 +62437,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="E8" s="3">
         <v>410</v>
@@ -61342,7 +62467,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" ref="D9:D15" ca="1" si="4">RANDBETWEEN(100,300)</f>
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="E9" s="3">
         <v>50</v>
@@ -61372,7 +62497,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="E10" s="3">
         <v>175</v>
@@ -61402,7 +62527,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="E11" s="3">
         <v>375</v>
@@ -61432,7 +62557,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="E12" s="3">
         <v>70</v>
@@ -61462,7 +62587,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3">
         <v>210</v>
@@ -61492,7 +62617,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E14" s="3">
         <v>250</v>
@@ -61522,7 +62647,7 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="E15" s="3">
         <v>90</v>
@@ -61552,7 +62677,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" ref="D16:D22" ca="1" si="5">ROUNDUP(RANDBETWEEN(10, 30) * 10, 0)</f>
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="E16" s="3">
         <v>500</v>
@@ -61582,7 +62707,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="E17" s="3">
         <v>325</v>
@@ -61612,7 +62737,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="E18" s="3">
         <v>185</v>
@@ -61642,7 +62767,7 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -61702,7 +62827,7 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E21" s="3">
         <v>165</v>
@@ -61732,7 +62857,7 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -61792,526 +62917,526 @@
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="str">
         <f>Inventory!C2</f>
-        <v>PER1001</v>
+        <v>PER1007</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B22" ca="1" si="0">DATE(2023,10,INT(RAND()*15)+1)</f>
-        <v>45212</v>
-      </c>
-      <c r="C2" s="7">
-        <f ca="1">Inventory!D2</f>
-        <v>220</v>
+        <v>45207</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f>Inventory!D2</f>
+        <v>Deodorant</v>
       </c>
       <c r="D2" s="3">
         <f>Inventory!F2</f>
-        <v>273</v>
+        <v>410</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">D2+RANDBETWEEN(-8,8)</f>
-        <v>277</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="str">
         <f>Inventory!C3</f>
-        <v>PER1002</v>
+        <v>HOM1016</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
-      </c>
-      <c r="C3" s="7">
-        <f ca="1">Inventory!D3</f>
-        <v>120</v>
+        <v>45203</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f>Inventory!D3</f>
+        <v>Laundry Detergent</v>
       </c>
       <c r="D3" s="3">
         <f>Inventory!F3</f>
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F22" ca="1" si="1">D3+RANDBETWEEN(-5,5)</f>
-        <v>120</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="str">
         <f>Inventory!C4</f>
-        <v>PER1003</v>
+        <v>HOM1021</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
-      </c>
-      <c r="C4" s="7">
-        <f ca="1">Inventory!D4</f>
-        <v>160</v>
+        <v>45206</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>Inventory!D4</f>
+        <v>Batteries</v>
       </c>
       <c r="D4" s="3">
         <f>Inventory!F4</f>
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="str">
         <f>Inventory!C5</f>
-        <v>PER1004</v>
+        <v>PER1005</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45207</v>
-      </c>
-      <c r="C5" s="7">
-        <f ca="1">Inventory!D5</f>
-        <v>110</v>
+        <v>45200</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>Inventory!D5</f>
+        <v>Hair Oil</v>
       </c>
       <c r="D5" s="3">
         <f>Inventory!F5</f>
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="str">
         <f>Inventory!C6</f>
-        <v>PER1005</v>
+        <v>HOM1018</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45210</v>
-      </c>
-      <c r="C6" s="7">
-        <f ca="1">Inventory!D6</f>
-        <v>240</v>
+        <v>45201</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f>Inventory!D6</f>
+        <v>Light Bulbs</v>
       </c>
       <c r="D6" s="3">
         <f>Inventory!F6</f>
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="str">
         <f>Inventory!C7</f>
-        <v>PER1006</v>
+        <v>PER1004</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45214</v>
-      </c>
-      <c r="C7" s="7">
-        <f ca="1">Inventory!D7</f>
-        <v>220</v>
+        <v>45208</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>Inventory!D7</f>
+        <v>Body Lotion</v>
       </c>
       <c r="D7" s="3">
         <f>Inventory!F7</f>
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>312</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="str">
         <f>Inventory!C8</f>
-        <v>PER1007</v>
+        <v>PER1003</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45210</v>
-      </c>
-      <c r="C8" s="7">
-        <f ca="1">Inventory!D8</f>
-        <v>250</v>
+        <v>45213</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>Inventory!D8</f>
+        <v>Toothpaste</v>
       </c>
       <c r="D8" s="3">
         <f>Inventory!F8</f>
-        <v>390</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>389</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="str">
         <f>Inventory!C9</f>
-        <v>GRO1008</v>
+        <v>PER1001</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
-      </c>
-      <c r="C9" s="7">
-        <f ca="1">Inventory!D9</f>
-        <v>214</v>
+        <v>45204</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>Inventory!D9</f>
+        <v>Shampoo</v>
       </c>
       <c r="D9" s="3">
         <f>Inventory!F9</f>
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>147</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="str">
         <f>Inventory!C10</f>
-        <v>GRO1009</v>
+        <v>GRO1010</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45202</v>
-      </c>
-      <c r="C10" s="7">
-        <f ca="1">Inventory!D10</f>
-        <v>285</v>
+        <v>45201</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>Inventory!D10</f>
+        <v>Sugar</v>
       </c>
       <c r="D10" s="3">
         <f>Inventory!F10</f>
-        <v>142</v>
+        <v>375</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="str">
         <f>Inventory!C11</f>
-        <v>GRO1010</v>
+        <v>HOM1017</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
-      </c>
-      <c r="C11" s="7">
-        <f ca="1">Inventory!D11</f>
-        <v>110</v>
+        <v>45202</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>Inventory!D11</f>
+        <v>Cleaning Supplies</v>
       </c>
       <c r="D11" s="3">
         <f>Inventory!F11</f>
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>344</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="str">
         <f>Inventory!C12</f>
-        <v>GRO1011</v>
+        <v>HOM1020</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45210</v>
-      </c>
-      <c r="C12" s="7">
-        <f ca="1">Inventory!D12</f>
-        <v>210</v>
+        <v>45208</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>Inventory!D12</f>
+        <v>Trash Bags</v>
       </c>
       <c r="D12" s="3">
         <f>Inventory!F12</f>
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="str">
         <f>Inventory!C13</f>
-        <v>GRO1012</v>
+        <v>PER1006</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
-      </c>
-      <c r="C13" s="7">
-        <f ca="1">Inventory!D13</f>
-        <v>137</v>
+        <v>45211</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>Inventory!D13</f>
+        <v>Face Wash</v>
       </c>
       <c r="D13" s="3">
         <f>Inventory!F13</f>
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>147</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="str">
         <f>Inventory!C14</f>
-        <v>GRO1013</v>
+        <v>GRO1012</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
-      </c>
-      <c r="C14" s="7">
-        <f ca="1">Inventory!D14</f>
-        <v>297</v>
+        <v>45208</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>Inventory!D14</f>
+        <v>Cooking Oil</v>
       </c>
       <c r="D14" s="3">
         <f>Inventory!F14</f>
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>147</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="str">
         <f>Inventory!C15</f>
-        <v>GRO1014</v>
+        <v>HOM1015</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45212</v>
-      </c>
-      <c r="C15" s="7">
-        <f ca="1">Inventory!D15</f>
-        <v>127</v>
+        <v>45211</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>Inventory!D15</f>
+        <v>Dish Soap</v>
       </c>
       <c r="D15" s="3">
         <f>Inventory!F15</f>
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f>Inventory!C16</f>
-        <v>HOM1015</v>
+        <v>HOM1019</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45207</v>
-      </c>
-      <c r="C16" s="7">
-        <f ca="1">Inventory!D16</f>
-        <v>280</v>
+        <v>45214</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>Inventory!D16</f>
+        <v>Towels</v>
       </c>
       <c r="D16" s="3">
         <f>Inventory!F16</f>
-        <v>445</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="str">
         <f>Inventory!C17</f>
-        <v>HOM1016</v>
+        <v>PER1002</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45212</v>
-      </c>
-      <c r="C17" s="7">
-        <f ca="1">Inventory!D17</f>
-        <v>230</v>
+        <v>45204</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>Inventory!D17</f>
+        <v>Soap</v>
       </c>
       <c r="D17" s="3">
         <f>Inventory!F17</f>
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>150</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>279</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="str">
         <f>Inventory!C18</f>
-        <v>HOM1017</v>
+        <v>GRO1013</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45201</v>
-      </c>
-      <c r="C18" s="7">
-        <f ca="1">Inventory!D18</f>
-        <v>230</v>
+        <v>45200</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>Inventory!D18</f>
+        <v>Spices</v>
       </c>
       <c r="D18" s="3">
         <f>Inventory!F18</f>
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>150</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>170</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="str">
         <f>Inventory!C19</f>
-        <v>HOM1018</v>
+        <v>GRO1009</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45212</v>
-      </c>
-      <c r="C19" s="7">
-        <f ca="1">Inventory!D19</f>
-        <v>160</v>
+        <v>45206</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>Inventory!D19</f>
+        <v>Lentils</v>
       </c>
       <c r="D19" s="3">
         <f>Inventory!F19</f>
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.5">
       <c r="A20" s="7" t="str">
         <f>Inventory!C20</f>
-        <v>HOM1019</v>
+        <v>GRO1014</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45214</v>
-      </c>
-      <c r="C20" s="7">
-        <f ca="1">Inventory!D20</f>
-        <v>130</v>
+        <v>45207</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f>Inventory!D20</f>
+        <v>Tea</v>
       </c>
       <c r="D20" s="3">
         <f>Inventory!F20</f>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>150</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.5">
       <c r="A21" s="7" t="str">
         <f>Inventory!C21</f>
-        <v>HOM1020</v>
+        <v>GRO1008</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
-      </c>
-      <c r="C21" s="7">
-        <f ca="1">Inventory!D21</f>
-        <v>280</v>
+        <v>45208</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f>Inventory!D21</f>
+        <v>Rice</v>
       </c>
       <c r="D21" s="3">
         <f>Inventory!F21</f>
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.5">
       <c r="A22" s="7" t="str">
         <f>Inventory!C22</f>
-        <v>HOM1021</v>
+        <v>GRO1011</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
-      </c>
-      <c r="C22" s="7">
-        <f ca="1">Inventory!D22</f>
-        <v>170</v>
+        <v>45209</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f>Inventory!D22</f>
+        <v>Flour</v>
       </c>
       <c r="D22" s="3">
         <f>Inventory!F22</f>
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>149</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>338</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshit\Downloads\EY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798BDC3A-269E-4F1C-BA76-D53B2B67C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A17B62-8330-429F-BA94-36FA227BB82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -1374,6 +1374,9 @@
       <t xml:space="preserve"> upcoming holidays.</t>
     </r>
   </si>
+  <si>
+    <t>Expiry</t>
+  </si>
 </sst>
 </file>
 
@@ -1734,10 +1737,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1746,7 +1749,7 @@
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1783,8 +1786,11 @@
       <c r="L1" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M1" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1816,14 +1822,17 @@
         <v>0.41463414599999998</v>
       </c>
       <c r="K2">
-        <f ca="1">_xlfn.CEILING.MATH(J2+8*RAND())</f>
-        <v>2</v>
+        <f t="shared" ref="K2:K22" ca="1" si="0">_xlfn.CEILING.MATH(J2+8*RAND())</f>
+        <v>7</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1855,14 +1864,17 @@
         <v>0.86153846199999995</v>
       </c>
       <c r="K3">
-        <f ca="1">_xlfn.CEILING.MATH(J3+8*RAND())</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1894,14 +1906,17 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="K4">
-        <f ca="1">_xlfn.CEILING.MATH(J4+8*RAND())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1933,14 +1948,17 @@
         <v>0.43333333299999999</v>
       </c>
       <c r="K5">
-        <f ca="1">_xlfn.CEILING.MATH(J5+8*RAND())</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1972,14 +1990,17 @@
         <v>0.8</v>
       </c>
       <c r="K6">
-        <f ca="1">_xlfn.CEILING.MATH(J6+8*RAND())</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2011,14 +2032,17 @@
         <v>1.2</v>
       </c>
       <c r="K7">
-        <f ca="1">_xlfn.CEILING.MATH(J7+8*RAND())</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2050,14 +2074,17 @@
         <v>2.2588235289999998</v>
       </c>
       <c r="K8">
-        <f ca="1">_xlfn.CEILING.MATH(J8+8*RAND())</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2089,14 +2116,17 @@
         <v>0.34482758600000002</v>
       </c>
       <c r="K9">
-        <f ca="1">_xlfn.CEILING.MATH(J9+8*RAND())</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2128,14 +2158,17 @@
         <v>0.35466666699999999</v>
       </c>
       <c r="K10">
-        <f ca="1">_xlfn.CEILING.MATH(J10+8*RAND())</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2167,14 +2200,17 @@
         <v>1.081081081</v>
       </c>
       <c r="K11">
-        <f ca="1">_xlfn.CEILING.MATH(J11+8*RAND())</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2206,14 +2242,17 @@
         <v>1.636363636</v>
       </c>
       <c r="K12">
-        <f ca="1">_xlfn.CEILING.MATH(J12+8*RAND())</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2245,14 +2284,17 @@
         <v>0.51282051299999998</v>
       </c>
       <c r="K13">
-        <f ca="1">_xlfn.CEILING.MATH(J13+8*RAND())</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2284,14 +2326,17 @@
         <v>0.6</v>
       </c>
       <c r="K14">
-        <f ca="1">_xlfn.CEILING.MATH(J14+8*RAND())</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2323,14 +2368,17 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <f ca="1">_xlfn.CEILING.MATH(J15+8*RAND())</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -2362,14 +2410,17 @@
         <v>1.6</v>
       </c>
       <c r="K16">
-        <f ca="1">_xlfn.CEILING.MATH(J16+8*RAND())</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2401,14 +2452,17 @@
         <v>1.52</v>
       </c>
       <c r="K17">
-        <f ca="1">_xlfn.CEILING.MATH(J17+8*RAND())</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -2440,14 +2494,17 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="K18">
-        <f ca="1">_xlfn.CEILING.MATH(J18+8*RAND())</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -2479,14 +2536,17 @@
         <v>1.6628571430000001</v>
       </c>
       <c r="K19">
-        <f ca="1">_xlfn.CEILING.MATH(J19+8*RAND())</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="12.5">
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.5">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -2518,14 +2578,17 @@
         <v>2.5</v>
       </c>
       <c r="K20">
-        <f ca="1">_xlfn.CEILING.MATH(J20+8*RAND())</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="12.5">
+      <c r="M20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.5">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2557,11 +2620,14 @@
         <v>3.62</v>
       </c>
       <c r="K21">
-        <f ca="1">_xlfn.CEILING.MATH(J21+8*RAND())</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="12.5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.5">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -2593,8 +2659,11 @@
         <v>2.7857142860000002</v>
       </c>
       <c r="K22">
-        <f ca="1">_xlfn.CEILING.MATH(J22+8*RAND())</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -62257,7 +62326,7 @@
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D8" ca="1" si="1">ROUNDUP(RANDBETWEEN(10, 30) * 10, 0)</f>
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E2" s="3">
         <v>290</v>
@@ -62287,7 +62356,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3">
         <v>125</v>
@@ -62317,7 +62386,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3">
         <v>85</v>
@@ -62347,7 +62416,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3">
         <v>150</v>
@@ -62377,7 +62446,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E6" s="3">
         <v>300</v>
@@ -62407,7 +62476,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E7" s="3">
         <v>390</v>
@@ -62437,7 +62506,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="E8" s="3">
         <v>410</v>
@@ -62467,7 +62536,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" ref="D9:D15" ca="1" si="4">RANDBETWEEN(100,300)</f>
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3">
         <v>50</v>
@@ -62497,7 +62566,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E10" s="3">
         <v>175</v>
@@ -62527,7 +62596,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3">
         <v>375</v>
@@ -62557,7 +62626,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="E12" s="3">
         <v>70</v>
@@ -62587,7 +62656,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3">
         <v>210</v>
@@ -62617,7 +62686,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="E14" s="3">
         <v>250</v>
@@ -62647,7 +62716,7 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E15" s="3">
         <v>90</v>
@@ -62677,7 +62746,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" ref="D16:D22" ca="1" si="5">ROUNDUP(RANDBETWEEN(10, 30) * 10, 0)</f>
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="E16" s="3">
         <v>500</v>
@@ -62707,7 +62776,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E17" s="3">
         <v>325</v>
@@ -62737,7 +62806,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E18" s="3">
         <v>185</v>
@@ -62767,7 +62836,7 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -62797,7 +62866,7 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>75</v>
@@ -62827,7 +62896,7 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="E21" s="3">
         <v>165</v>
@@ -62921,7 +62990,7 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B22" ca="1" si="0">DATE(2023,10,INT(RAND()*15)+1)</f>
-        <v>45207</v>
+        <v>45212</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>Inventory!D2</f>
@@ -62936,7 +63005,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">D2+RANDBETWEEN(-8,8)</f>
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -62946,7 +63015,7 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45203</v>
+        <v>45200</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>Inventory!D3</f>
@@ -62961,7 +63030,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F22" ca="1" si="1">D3+RANDBETWEEN(-5,5)</f>
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -62971,7 +63040,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45206</v>
+        <v>45203</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>Inventory!D4</f>
@@ -62986,7 +63055,7 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -62996,7 +63065,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45204</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>Inventory!D5</f>
@@ -63011,7 +63080,7 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
@@ -63021,7 +63090,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45201</v>
+        <v>45200</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>Inventory!D6</f>
@@ -63036,7 +63105,7 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -63046,7 +63115,7 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45208</v>
+        <v>45213</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>Inventory!D7</f>
@@ -63071,7 +63140,7 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45200</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>Inventory!D8</f>
@@ -63086,7 +63155,7 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -63096,7 +63165,7 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45201</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>Inventory!D9</f>
@@ -63111,7 +63180,7 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
@@ -63121,7 +63190,7 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45201</v>
+        <v>45205</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>Inventory!D10</f>
@@ -63136,7 +63205,7 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
@@ -63146,7 +63215,7 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45202</v>
+        <v>45213</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>Inventory!D11</f>
@@ -63161,7 +63230,7 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
@@ -63171,7 +63240,7 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45208</v>
+        <v>45206</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>Inventory!D12</f>
@@ -63196,7 +63265,7 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
+        <v>45205</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>Inventory!D13</f>
@@ -63211,7 +63280,7 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
@@ -63221,7 +63290,7 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>Inventory!D14</f>
@@ -63236,7 +63305,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
@@ -63246,7 +63315,7 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
+        <v>45200</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>Inventory!D15</f>
@@ -63261,7 +63330,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
@@ -63271,7 +63340,7 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45214</v>
+        <v>45208</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>Inventory!D16</f>
@@ -63286,7 +63355,7 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
@@ -63296,7 +63365,7 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45214</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>Inventory!D17</f>
@@ -63311,7 +63380,7 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
@@ -63321,7 +63390,7 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45204</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>Inventory!D18</f>
@@ -63361,7 +63430,7 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.5">
@@ -63371,7 +63440,7 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45207</v>
+        <v>45213</v>
       </c>
       <c r="C20" s="7" t="str">
         <f>Inventory!D20</f>
@@ -63386,7 +63455,7 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.5">
@@ -63396,7 +63465,7 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45208</v>
+        <v>45206</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>Inventory!D21</f>
@@ -63411,7 +63480,7 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.5">
@@ -63421,7 +63490,7 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45209</v>
+        <v>45213</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>Inventory!D22</f>
@@ -63436,7 +63505,7 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshit\Downloads\EY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A17B62-8330-429F-BA94-36FA227BB82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1417D84C-56B8-4A33-823A-D3E735EF04DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="198">
   <si>
     <t>Date</t>
   </si>
@@ -1377,12 +1377,15 @@
   <si>
     <t>Expiry</t>
   </si>
+  <si>
+    <t>Predicted Price after 15 days (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1451,6 +1454,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF00A67D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1484,7 +1493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1502,6 +1511,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1737,19 +1749,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.6328125" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1789,8 +1802,12 @@
       <c r="M1" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1840,7 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K22" ca="1" si="0">_xlfn.CEILING.MATH(J2+8*RAND())</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>177</v>
@@ -1831,8 +1848,11 @@
       <c r="M2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N2" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +1885,7 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>178</v>
@@ -1873,8 +1893,11 @@
       <c r="M3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N3" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1930,7 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>179</v>
@@ -1915,8 +1938,11 @@
       <c r="M4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1949,7 +1975,7 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>180</v>
@@ -1957,8 +1983,11 @@
       <c r="M5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1991,7 +2020,7 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>181</v>
@@ -1999,8 +2028,11 @@
       <c r="M6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2033,7 +2065,7 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>182</v>
@@ -2041,8 +2073,11 @@
       <c r="M7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2075,7 +2110,7 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>183</v>
@@ -2083,8 +2118,11 @@
       <c r="M8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2155,7 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>184</v>
@@ -2125,8 +2163,11 @@
       <c r="M9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2200,7 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>185</v>
@@ -2167,8 +2208,11 @@
       <c r="M10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2201,7 +2245,7 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>186</v>
@@ -2209,8 +2253,11 @@
       <c r="M11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2243,7 +2290,7 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>187</v>
@@ -2251,8 +2298,11 @@
       <c r="M12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N12" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +2335,7 @@
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>188</v>
@@ -2293,8 +2343,11 @@
       <c r="M13">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N13" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2327,7 +2380,7 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>189</v>
@@ -2335,8 +2388,11 @@
       <c r="M14">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2369,7 +2425,7 @@
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>190</v>
@@ -2377,8 +2433,11 @@
       <c r="M15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N15" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -2411,7 +2470,7 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>191</v>
@@ -2419,8 +2478,11 @@
       <c r="M16">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2453,7 +2515,7 @@
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>192</v>
@@ -2461,8 +2523,11 @@
       <c r="M17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -2495,7 +2560,7 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>193</v>
@@ -2503,8 +2568,11 @@
       <c r="M18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N18" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -2545,8 +2613,11 @@
       <c r="M19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.5">
+      <c r="N19" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.5">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -2579,7 +2650,7 @@
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>195</v>
@@ -2587,8 +2658,11 @@
       <c r="M20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.5">
+      <c r="N20" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.5">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2621,13 +2695,16 @@
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.5">
+      <c r="N21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.5">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -2660,10 +2737,13 @@
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M22">
         <v>15</v>
+      </c>
+      <c r="N22" s="12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -62326,7 +62406,7 @@
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D8" ca="1" si="1">ROUNDUP(RANDBETWEEN(10, 30) * 10, 0)</f>
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="E2" s="3">
         <v>290</v>
@@ -62356,7 +62436,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E3" s="3">
         <v>125</v>
@@ -62386,7 +62466,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3">
         <v>85</v>
@@ -62446,7 +62526,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="E6" s="3">
         <v>300</v>
@@ -62476,7 +62556,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3">
         <v>390</v>
@@ -62506,7 +62586,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="E8" s="3">
         <v>410</v>
@@ -62536,7 +62616,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" ref="D9:D15" ca="1" si="4">RANDBETWEEN(100,300)</f>
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="E9" s="3">
         <v>50</v>
@@ -62566,7 +62646,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E10" s="3">
         <v>175</v>
@@ -62596,7 +62676,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="E11" s="3">
         <v>375</v>
@@ -62626,7 +62706,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E12" s="3">
         <v>70</v>
@@ -62656,7 +62736,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="E13" s="3">
         <v>210</v>
@@ -62686,7 +62766,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>297</v>
+        <v>192</v>
       </c>
       <c r="E14" s="3">
         <v>250</v>
@@ -62746,7 +62826,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" ref="D16:D22" ca="1" si="5">ROUNDUP(RANDBETWEEN(10, 30) * 10, 0)</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E16" s="3">
         <v>500</v>
@@ -62776,7 +62856,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>325</v>
@@ -62806,7 +62886,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E18" s="3">
         <v>185</v>
@@ -62836,7 +62916,7 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -62866,7 +62946,7 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E20" s="3">
         <v>75</v>
@@ -62896,7 +62976,7 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E21" s="3">
         <v>165</v>
@@ -62926,7 +63006,7 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -62990,7 +63070,7 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B22" ca="1" si="0">DATE(2023,10,INT(RAND()*15)+1)</f>
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C2" s="7" t="str">
         <f>Inventory!D2</f>
@@ -63005,7 +63085,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">D2+RANDBETWEEN(-8,8)</f>
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -63015,7 +63095,7 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45203</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>Inventory!D3</f>
@@ -63030,7 +63110,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F22" ca="1" si="1">D3+RANDBETWEEN(-5,5)</f>
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -63040,7 +63120,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45203</v>
+        <v>45211</v>
       </c>
       <c r="C4" s="7" t="str">
         <f>Inventory!D4</f>
@@ -63055,7 +63135,7 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -63065,7 +63145,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>Inventory!D5</f>
@@ -63080,7 +63160,7 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
@@ -63090,7 +63170,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45203</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>Inventory!D6</f>
@@ -63105,7 +63185,7 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -63115,7 +63195,7 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45207</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>Inventory!D7</f>
@@ -63130,7 +63210,7 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -63140,7 +63220,7 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45212</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>Inventory!D8</f>
@@ -63155,7 +63235,7 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -63165,7 +63245,7 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45201</v>
+        <v>45203</v>
       </c>
       <c r="C9" s="7" t="str">
         <f>Inventory!D9</f>
@@ -63180,7 +63260,7 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
@@ -63190,7 +63270,7 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45205</v>
+        <v>45211</v>
       </c>
       <c r="C10" s="7" t="str">
         <f>Inventory!D10</f>
@@ -63215,7 +63295,7 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45204</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>Inventory!D11</f>
@@ -63230,7 +63310,7 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
@@ -63240,7 +63320,7 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C12" s="7" t="str">
         <f>Inventory!D12</f>
@@ -63255,7 +63335,7 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
@@ -63265,7 +63345,7 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45205</v>
+        <v>45214</v>
       </c>
       <c r="C13" s="7" t="str">
         <f>Inventory!D13</f>
@@ -63290,7 +63370,7 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45209</v>
+        <v>45200</v>
       </c>
       <c r="C14" s="7" t="str">
         <f>Inventory!D14</f>
@@ -63305,7 +63385,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
@@ -63315,7 +63395,7 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>Inventory!D15</f>
@@ -63330,7 +63410,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
@@ -63340,7 +63420,7 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45208</v>
+        <v>45207</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>Inventory!D16</f>
@@ -63355,7 +63435,7 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
@@ -63365,7 +63445,7 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45214</v>
+        <v>45211</v>
       </c>
       <c r="C17" s="7" t="str">
         <f>Inventory!D17</f>
@@ -63390,7 +63470,7 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45214</v>
       </c>
       <c r="C18" s="7" t="str">
         <f>Inventory!D18</f>
@@ -63405,7 +63485,7 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
@@ -63415,7 +63495,7 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45206</v>
+        <v>45210</v>
       </c>
       <c r="C19" s="7" t="str">
         <f>Inventory!D19</f>
@@ -63430,7 +63510,7 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.5">
@@ -63440,7 +63520,7 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45203</v>
       </c>
       <c r="C20" s="7" t="str">
         <f>Inventory!D20</f>
@@ -63455,7 +63535,7 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.5">
@@ -63465,7 +63545,7 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="C21" s="7" t="str">
         <f>Inventory!D21</f>
@@ -63480,7 +63560,7 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.5">
@@ -63490,7 +63570,7 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45214</v>
       </c>
       <c r="C22" s="7" t="str">
         <f>Inventory!D22</f>
@@ -63505,7 +63585,7 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
